--- a/testcases/template/运维-设备配置.xlsx
+++ b/testcases/template/运维-设备配置.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="10800" activeTab="1"/>
   </bookViews>
@@ -23,13 +18,13 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="151">
   <si>
     <t>测试结果</t>
   </si>
@@ -354,29 +349,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1. 列表为空
-2. 侧边栏选中设备显示为空、白名单显示为0
-3. 地图中设备图标
-4. 侧边栏所有按钮不可操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面显示切换后的域相应信息，显示正确列表数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>添加后列表显示添加的信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>文件显示在下方列表，确认后成功添加到列表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件显示在下方列表，确认后成功添加到列表，原来数据被覆盖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>网关:编辑</t>
   </si>
   <si>
@@ -416,17 +392,104 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1. 列表为空
-2. 侧边栏选中设备显示为空
-3. 地图中无设备图标
-4. 侧边栏所有按钮不可操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 设备信息在列表中显示，默认选中第一项
-2. 有分页页导航
-3. 侧边栏选中设备显示选中的设备名称
-4. 地图根据经纬度显示该设备的具体位置</t>
+    <t>网关:设备更换</t>
+  </si>
+  <si>
+    <t>网关:设备更换</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关:设备升级</t>
+  </si>
+  <si>
+    <t>网关:设备升级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器:设备更换</t>
+  </si>
+  <si>
+    <t>单灯控制器:设备升级</t>
+  </si>
+  <si>
+    <t>选择设备，点击导入按钮，点击导入文件图标，导入错误文件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择设备，点击导入按钮，点击导入文件图标，导入正确文件，点击完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.确认按钮不可点击
+2.列表为空，提示文件错误</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择设备，点击升级按钮，选中所有设备弹出框，点击下一步，选中升级包文件，确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.默认选中所有设备弹出框，列表不可操作
+2.点击下一步弹出新弹框
+3.确认后回到主页面，升级成功</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择设备，点击升级按钮，选中所有设备弹出框，点击下一步，导入升级包文件，选中升级包，确认</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ops-device-030</t>
+  </si>
+  <si>
+    <t>ops-device-031</t>
+  </si>
+  <si>
+    <t>ops-device-032</t>
+  </si>
+  <si>
+    <t>ops-device-033</t>
+  </si>
+  <si>
+    <t>ops-device-034</t>
+  </si>
+  <si>
+    <t>ops-device-035</t>
+  </si>
+  <si>
+    <t>单灯控制器:设备更换</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ops-device-036</t>
+  </si>
+  <si>
+    <t>ops-device-037</t>
+  </si>
+  <si>
+    <t>1.成功删除白名单列表
+2.回到主页面，白名单数量减少1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.成功添加白名单，并在列表中显示
+2.回到主页面
+3.白名单数量加1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ops-device-038</t>
+  </si>
+  <si>
+    <t>选择网关设备，点击白名单按钮，搜索设备名称，选中并添加设备，完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>白名单数据不为空，选择设备，点击删除按钮，完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件显示在下方列表，确认后成功添加到列表，编号相同其他不同数据被覆盖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -434,144 +497,90 @@
 2. 有分页导航
 3. 侧边栏选中设备显示选中的设备名称
 4. 白名单显示白名单数量
-5. 地图根据经纬度显示该设备的具体位置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关:设备更换</t>
-  </si>
-  <si>
-    <t>网关:设备更换</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关:设备升级</t>
-  </si>
-  <si>
-    <t>网关:设备升级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单灯控制器:设备更换</t>
-  </si>
-  <si>
-    <t>单灯控制器:设备升级</t>
-  </si>
-  <si>
-    <t>选择设备，点击导入按钮，点击导入文件图标，导入错误文件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择设备，点击导入按钮，点击导入文件图标，导入正确文件，点击完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.确认按钮不可点击
-2.列表为空，提示文件错误</t>
+5. 地图根据经纬度显示该设备的具体位置
+6. 侧边栏所有按钮可操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 设备信息在列表中显示，默认选中第一项
+2. 有分页页导航
+3. 侧边栏选中设备显示选中的设备名称
+4. 地图根据经纬度显示该设备的具体位置
+5. 侧边栏所有按钮可操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 列表为空
+2. 侧边栏选中设备显示为空、白名单显示为0
+3. 地图中无设备位置图标
+4. 侧边栏所有按钮不可操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 列表为空
+2. 侧边栏选中设备显示为空
+3. 地图中无设备位置图标
+4. 侧边栏所有按钮不可操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台数据为空，点击操作按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作按钮不可点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关:操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台数据不为空，点击操作按钮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作按钮可点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单灯控制器:操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.默认选中所有设备弹出框，列表不可操作
+2.点击下一步弹出新弹框
+3.导入升级包显示列表，确认后回到主页面，升级成功
+4.选中升级包之前确认按钮不可操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.默认选中所有设备弹出框，列表不可操作
+2.点击下一步弹出新弹框
+3.导入升级包确认后回到主页面，升级成功
+4.选中升级包之前确认按钮不可操作</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1.文件显示在下方列表
 2.导入的设备信息在下方列表中显示
-3.点击确认，弹出框关闭，主页列表信息根据导入内容更新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择设备，点击升级按钮，选中所有设备弹出框，点击下一步，选中升级包文件，确认</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.默认选中所有设备弹出框，列表不可操作
-2.点击下一步弹出新弹框
-3.确认后回到主页面，升级成功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择设备，点击升级按钮，选中所有设备弹出框，点击下一步，导入升级包文件，选中升级包，确认</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.默认选中所有设备弹出框，列表不可操作
-2.点击下一步弹出新弹框
-3.导入升级包确认后回到主页面，升级成功</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台数据为空，点击升级按钮，点击取消或关闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ops-device-030</t>
-  </si>
-  <si>
-    <t>ops-device-031</t>
-  </si>
-  <si>
-    <t>ops-device-032</t>
-  </si>
-  <si>
-    <t>ops-device-033</t>
-  </si>
-  <si>
-    <t>ops-device-034</t>
-  </si>
-  <si>
-    <t>ops-device-035</t>
-  </si>
-  <si>
-    <t>单灯控制器:设备更换</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台数据为空，点击更换按钮，点击取消或关闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关:设备更换</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>更换按钮不可点，点击取消或关闭回到主页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级按钮不可点，点击取消或关闭回到主页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ops-device-036</t>
-  </si>
-  <si>
-    <t>ops-device-037</t>
-  </si>
-  <si>
-    <t>1.成功删除白名单列表
-2.回到主页面，白名单数量减少1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.成功添加白名单，并在列表中显示
-2.回到主页面
-3.白名单数量加1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ops-device-038</t>
-  </si>
-  <si>
-    <t>选择网关设备，点击白名单按钮，搜索设备名称，选中并添加设备，完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>白名单数据不为空，选择设备，点击删除按钮，完成</t>
+3.点击确认，弹出框关闭，主页列表信息根据导入内容更新
+4.输入更换文件之前确认按钮不可操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文件显示在下方列表
+2.导入的设备信息在下方列表中显示
+3.点击确认，弹出框关闭，主页列表信息根据导入内容更新
+4.输入更换文件之前确认按钮不可操作</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +649,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -702,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,18 +829,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[运维-设备配置.xlsx]运维-设备配置!数据透视表3</c:name>
     <c:fmtId val="0"/>
@@ -875,13 +886,8 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -934,13 +940,8 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -993,13 +994,8 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1027,6 +1023,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1052,13 +1049,8 @@
             </a:p>
           </c:txPr>
           <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1103,13 +1095,8 @@
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1132,15 +1119,52 @@
               <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showVal val="1"/>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showVal val="1"/>
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1149,7 +1173,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1180,7 +1203,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1207,18 +1229,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1342,35 +1353,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-072F-4FF0-B1B2-5230BD674595}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="260471808"/>
-        <c:axId val="260477696"/>
+        <c:axId val="203137024"/>
+        <c:axId val="203138560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="260471808"/>
+        <c:axId val="203137024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1405,15 +1408,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260477696"/>
+        <c:crossAx val="203138560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260477696"/>
+        <c:axId val="203138560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,9 +1449,8 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="260471808"/>
+        <c:crossAx val="203137024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,7 +1464,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="lt1">
@@ -1499,7 +1500,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1543,10 +1543,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1602,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="数据源 "/>
@@ -2010,7 +2010,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="J2:L22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -2448,14 +2448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -2464,25 +2464,25 @@
     <col min="10" max="10" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="18">
+      <c r="A1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2499,13 +2499,13 @@
         <v>43187</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="F3" t="s">
         <v>7</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>43187</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="6">
         <v>43192</v>
       </c>
@@ -2579,13 +2579,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2594,43 +2594,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2649,19 +2649,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.125" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="18.375" customWidth="1"/>
@@ -2680,7 +2680,7 @@
     <col min="21" max="21" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2703,7 +2703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="76.5">
       <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
@@ -2731,10 +2731,10 @@
         <v>67</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>30</v>
@@ -2746,7 +2746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="51">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -2754,10 +2754,10 @@
         <v>67</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -2765,7 +2765,7 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
@@ -2776,8 +2776,10 @@
         <v>74</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>100</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="J5" s="3" t="s">
         <v>71</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>79</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>91</v>
@@ -2834,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
@@ -2857,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="13" t="s">
         <v>40</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>84</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>92</v>
@@ -2880,7 +2882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>86</v>
@@ -2903,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="13" t="s">
         <v>42</v>
       </c>
@@ -2926,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
@@ -2934,10 +2936,10 @@
         <v>98</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>88</v>
@@ -2949,18 +2951,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>89</v>
@@ -2972,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="38.25">
       <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
@@ -2980,10 +2982,10 @@
         <v>70</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>97</v>
@@ -2995,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="29.25" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>46</v>
       </c>
@@ -3003,13 +3005,13 @@
         <v>70</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K15" s="17">
         <v>1</v>
@@ -3018,15 +3020,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>142</v>
@@ -3041,18 +3043,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>95</v>
@@ -3064,21 +3066,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="38.25">
       <c r="A18" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="J18" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K18" s="17">
         <v>3</v>
@@ -3087,21 +3089,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="51">
       <c r="A19" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K19" s="17">
         <v>3</v>
@@ -3110,21 +3112,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="25.5">
       <c r="A20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>125</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K20" s="17">
         <v>3</v>
@@ -3133,21 +3135,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="51">
       <c r="A21" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K21" s="17">
         <v>3</v>
@@ -3156,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="63.75">
       <c r="A23" s="13" t="s">
         <v>55</v>
       </c>
@@ -3187,13 +3189,13 @@
         <v>87</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="51">
       <c r="A24" s="13" t="s">
         <v>56</v>
       </c>
@@ -3201,13 +3203,13 @@
         <v>87</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
@@ -3220,8 +3222,10 @@
       <c r="D25" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="13" t="s">
         <v>58</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="13" t="s">
         <v>59</v>
       </c>
@@ -3246,10 +3250,10 @@
         <v>79</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="13" t="s">
         <v>60</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="13" t="s">
         <v>61</v>
       </c>
@@ -3274,10 +3278,10 @@
         <v>84</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>62</v>
       </c>
@@ -3288,12 +3292,12 @@
         <v>85</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>89</v>
@@ -3305,128 +3309,128 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="38.25">
+      <c r="A36" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="B36" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="51">
+      <c r="A37" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="25.5">
+      <c r="A38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>138</v>
-      </c>
       <c r="C38" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="51">
       <c r="A39" s="13" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="40" operator="equal">
       <formula>"Skip"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
